--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H2">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I2">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J2">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>0.905859198313111</v>
+        <v>0.8917137973653335</v>
       </c>
       <c r="R2">
-        <v>8.152732784817999</v>
+        <v>8.025424176288002</v>
       </c>
       <c r="S2">
-        <v>0.008827375425131045</v>
+        <v>0.009110683067711544</v>
       </c>
       <c r="T2">
-        <v>0.008827375425131045</v>
+        <v>0.009110683067711544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H3">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I3">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J3">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
-        <v>2.873906656708444</v>
+        <v>3.086895417418667</v>
       </c>
       <c r="R3">
-        <v>25.865159910376</v>
+        <v>27.782058756768</v>
       </c>
       <c r="S3">
-        <v>0.02800551459077839</v>
+        <v>0.03153896002772106</v>
       </c>
       <c r="T3">
-        <v>0.02800551459077838</v>
+        <v>0.03153896002772106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H4">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I4">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J4">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.0009922032886666666</v>
+        <v>0.4464516225146667</v>
       </c>
       <c r="R4">
-        <v>0.008929829598</v>
+        <v>4.018064602632</v>
       </c>
       <c r="S4">
-        <v>9.668777381099063E-06</v>
+        <v>0.004561417856059349</v>
       </c>
       <c r="T4">
-        <v>9.668777381099061E-06</v>
+        <v>0.004561417856059349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,108 +726,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H5">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I5">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J5">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>0.3236999333688889</v>
+        <v>0.004157926802666667</v>
       </c>
       <c r="R5">
-        <v>2.91329940032</v>
+        <v>0.037421341224</v>
       </c>
       <c r="S5">
-        <v>0.003154376355904063</v>
+        <v>4.24817395780624E-05</v>
       </c>
       <c r="T5">
-        <v>0.003154376355904062</v>
+        <v>4.24817395780624E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3262753333333333</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H6">
-        <v>0.978826</v>
+        <v>16.419945</v>
       </c>
       <c r="I6">
-        <v>0.04000942411912322</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J6">
-        <v>0.04000942411912322</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003928</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N6">
-        <v>0.011784</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q6">
-        <v>0.001281609509333333</v>
+        <v>13.92651432084667</v>
       </c>
       <c r="R6">
-        <v>0.011534485584</v>
+        <v>125.33862888762</v>
       </c>
       <c r="S6">
-        <v>1.248896992862779E-05</v>
+        <v>0.1422878715009918</v>
       </c>
       <c r="T6">
-        <v>1.248896992862779E-05</v>
+        <v>0.1422878715009919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>16.419945</v>
       </c>
       <c r="I7">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J7">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.776364333333333</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N7">
-        <v>8.329093</v>
+        <v>26.424676</v>
       </c>
       <c r="O7">
-        <v>0.2206324039768381</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P7">
-        <v>0.2206324039768381</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q7">
-        <v>15.19591655109833</v>
+        <v>48.21019184031333</v>
       </c>
       <c r="R7">
-        <v>136.763248959885</v>
+        <v>433.8917265628199</v>
       </c>
       <c r="S7">
-        <v>0.1480804749516292</v>
+        <v>0.4925658656268577</v>
       </c>
       <c r="T7">
-        <v>0.1480804749516292</v>
+        <v>0.4925658656268578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>16.419945</v>
       </c>
       <c r="I8">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J8">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.808225333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N8">
-        <v>26.424676</v>
+        <v>3.821749</v>
       </c>
       <c r="O8">
-        <v>0.6999729490580858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P8">
-        <v>0.6999729490580857</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q8">
-        <v>48.21019184031333</v>
+        <v>6.972545375978333</v>
       </c>
       <c r="R8">
-        <v>433.8917265628199</v>
+        <v>62.75290838380499</v>
       </c>
       <c r="S8">
-        <v>0.4697964799436045</v>
+        <v>0.07123883389879891</v>
       </c>
       <c r="T8">
-        <v>0.4697964799436045</v>
+        <v>0.07123883389879893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.419945</v>
       </c>
       <c r="I9">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J9">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.003041</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N9">
-        <v>0.009123000000000001</v>
+        <v>0.035593</v>
       </c>
       <c r="O9">
-        <v>0.0002416624981232284</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P9">
-        <v>0.0002416624981232283</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q9">
-        <v>0.016644350915</v>
+        <v>0.06493723359833332</v>
       </c>
       <c r="R9">
-        <v>0.149799158235</v>
+        <v>0.584435102385</v>
       </c>
       <c r="S9">
-        <v>0.0001621951121188962</v>
+        <v>0.0006634668616280005</v>
       </c>
       <c r="T9">
-        <v>0.0001621951121188961</v>
+        <v>0.0006634668616280006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>5.473314999999999</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H10">
-        <v>16.419945</v>
+        <v>2.404425</v>
       </c>
       <c r="I10">
-        <v>0.6711637650794694</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J10">
-        <v>0.6711637650794694</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1054,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9921066666666668</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N10">
-        <v>2.97632</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O10">
-        <v>0.0788408337623728</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P10">
-        <v>0.07884083376237279</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q10">
-        <v>5.430112300266667</v>
+        <v>2.039303980366666</v>
       </c>
       <c r="R10">
-        <v>48.8710107024</v>
+        <v>18.3537358233</v>
       </c>
       <c r="S10">
-        <v>0.05291511082995868</v>
+        <v>0.02083566756367164</v>
       </c>
       <c r="T10">
-        <v>0.05291511082995867</v>
+        <v>0.02083566756367164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>5.473314999999999</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H11">
-        <v>16.419945</v>
+        <v>2.404425</v>
       </c>
       <c r="I11">
-        <v>0.6711637650794694</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J11">
-        <v>0.6711637650794694</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003928</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N11">
-        <v>0.011784</v>
+        <v>26.424676</v>
       </c>
       <c r="O11">
-        <v>0.0003121507045800858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P11">
-        <v>0.0003121507045800858</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q11">
-        <v>0.02149918132</v>
+        <v>7.059572399033332</v>
       </c>
       <c r="R11">
-        <v>0.19349263188</v>
+        <v>63.53615159129999</v>
       </c>
       <c r="S11">
-        <v>0.0002095042421581796</v>
+        <v>0.07212799320946918</v>
       </c>
       <c r="T11">
-        <v>0.0002095042421581796</v>
+        <v>0.07212799320946919</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H12">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I12">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J12">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.776364333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N12">
-        <v>8.329093</v>
+        <v>3.821749</v>
       </c>
       <c r="O12">
-        <v>0.2206324039768381</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P12">
-        <v>0.2206324039768381</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q12">
-        <v>3.668826648283333</v>
+        <v>1.021012093258333</v>
       </c>
       <c r="R12">
-        <v>33.01943983455</v>
+        <v>9.189108839325</v>
       </c>
       <c r="S12">
-        <v>0.03575181469088302</v>
+        <v>0.01043173002084475</v>
       </c>
       <c r="T12">
-        <v>0.03575181469088302</v>
+        <v>0.01043173002084475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H13">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I13">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J13">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>8.808225333333333</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N13">
-        <v>26.424676</v>
+        <v>0.035593</v>
       </c>
       <c r="O13">
-        <v>0.6999729490580858</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P13">
-        <v>0.6999729490580857</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q13">
-        <v>11.63962936673333</v>
+        <v>0.009508966558333332</v>
       </c>
       <c r="R13">
-        <v>104.7566643006</v>
+        <v>0.085580699025</v>
       </c>
       <c r="S13">
-        <v>0.1134253296989989</v>
+        <v>9.71535719985606E-05</v>
       </c>
       <c r="T13">
-        <v>0.1134253296989989</v>
+        <v>9.715357199856063E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.32145</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H14">
-        <v>3.96435</v>
+        <v>1.914535</v>
       </c>
       <c r="I14">
-        <v>0.1620424472854687</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J14">
-        <v>0.1620424472854687</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.003041</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N14">
-        <v>0.009123000000000001</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O14">
-        <v>0.0002416624981232284</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P14">
-        <v>0.0002416624981232283</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q14">
-        <v>0.004018529450000001</v>
+        <v>1.623805627562222</v>
       </c>
       <c r="R14">
-        <v>0.03616676505</v>
+        <v>14.61425064806</v>
       </c>
       <c r="S14">
-        <v>3.91595826130079E-05</v>
+        <v>0.01659050076380594</v>
       </c>
       <c r="T14">
-        <v>3.91595826130079E-05</v>
+        <v>0.01659050076380594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.32145</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H15">
-        <v>3.96435</v>
+        <v>1.914535</v>
       </c>
       <c r="I15">
-        <v>0.1620424472854687</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J15">
-        <v>0.1620424472854687</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9921066666666668</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N15">
-        <v>2.97632</v>
+        <v>26.424676</v>
       </c>
       <c r="O15">
-        <v>0.0788408337623728</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P15">
-        <v>0.07884083376237279</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q15">
-        <v>1.311019354666667</v>
+        <v>5.62121856285111</v>
       </c>
       <c r="R15">
-        <v>11.799174192</v>
+        <v>50.59096706566</v>
       </c>
       <c r="S15">
-        <v>0.01277556164888169</v>
+        <v>0.05743226238260336</v>
       </c>
       <c r="T15">
-        <v>0.01277556164888169</v>
+        <v>0.05743226238260336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.32145</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H16">
-        <v>3.96435</v>
+        <v>1.914535</v>
       </c>
       <c r="I16">
-        <v>0.1620424472854687</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J16">
-        <v>0.1620424472854687</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.003928</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N16">
-        <v>0.011784</v>
+        <v>3.821749</v>
       </c>
       <c r="O16">
-        <v>0.0003121507045800858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P16">
-        <v>0.0003121507045800858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q16">
-        <v>0.0051906556</v>
+        <v>0.8129858024127777</v>
       </c>
       <c r="R16">
-        <v>0.0467159004</v>
+        <v>7.316872221714999</v>
       </c>
       <c r="S16">
-        <v>5.058166409204046E-05</v>
+        <v>0.008306315329219251</v>
       </c>
       <c r="T16">
-        <v>5.058166409204046E-05</v>
+        <v>0.008306315329219251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3933246666666667</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H17">
-        <v>1.179974</v>
+        <v>1.914535</v>
       </c>
       <c r="I17">
-        <v>0.04823133040554533</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J17">
-        <v>0.04823133040554532</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.776364333333333</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N17">
-        <v>8.329093</v>
+        <v>0.035593</v>
       </c>
       <c r="O17">
-        <v>0.2206324039768381</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P17">
-        <v>0.2206324039768381</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q17">
-        <v>1.092012575953556</v>
+        <v>0.007571560472777777</v>
       </c>
       <c r="R17">
-        <v>9.828113183582001</v>
+        <v>0.06814404425499999</v>
       </c>
       <c r="S17">
-        <v>0.01064139437437663</v>
+        <v>7.735900016272673E-05</v>
       </c>
       <c r="T17">
-        <v>0.01064139437437663</v>
+        <v>7.735900016272675E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3933246666666667</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H18">
-        <v>1.179974</v>
+        <v>1.44256</v>
       </c>
       <c r="I18">
-        <v>0.04823133040554533</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J18">
-        <v>0.04823133040554532</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.808225333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N18">
-        <v>26.424676</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O18">
-        <v>0.6999729490580858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P18">
-        <v>0.6999729490580857</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q18">
-        <v>3.464492293158222</v>
+        <v>1.223501814328889</v>
       </c>
       <c r="R18">
-        <v>31.180430638424</v>
+        <v>11.01151632896</v>
       </c>
       <c r="S18">
-        <v>0.03376062658096449</v>
+        <v>0.01250057731085401</v>
       </c>
       <c r="T18">
-        <v>0.03376062658096448</v>
+        <v>0.01250057731085402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3933246666666667</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H19">
-        <v>1.179974</v>
+        <v>1.44256</v>
       </c>
       <c r="I19">
-        <v>0.04823133040554533</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J19">
-        <v>0.04823133040554532</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.003041</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N19">
-        <v>0.009123000000000001</v>
+        <v>26.424676</v>
       </c>
       <c r="O19">
-        <v>0.0002416624981232284</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P19">
-        <v>0.0002416624981232283</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q19">
-        <v>0.001196100311333334</v>
+        <v>4.235464512284445</v>
       </c>
       <c r="R19">
-        <v>0.010764902802</v>
+        <v>38.11918061056</v>
       </c>
       <c r="S19">
-        <v>1.165570379361091E-05</v>
+        <v>0.04327394611362462</v>
       </c>
       <c r="T19">
-        <v>1.16557037936109E-05</v>
+        <v>0.04327394611362462</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3933246666666667</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H20">
-        <v>1.179974</v>
+        <v>1.44256</v>
       </c>
       <c r="I20">
-        <v>0.04823133040554533</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J20">
-        <v>0.04823133040554532</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9921066666666668</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N20">
-        <v>2.97632</v>
+        <v>3.821749</v>
       </c>
       <c r="O20">
-        <v>0.0788408337623728</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P20">
-        <v>0.07884083376237279</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q20">
-        <v>0.3902200239644446</v>
+        <v>0.6125669152711112</v>
       </c>
       <c r="R20">
-        <v>3.51198021568</v>
+        <v>5.51310223744</v>
       </c>
       <c r="S20">
-        <v>0.003802598302641676</v>
+        <v>0.006258625849785208</v>
       </c>
       <c r="T20">
-        <v>0.003802598302641675</v>
+        <v>0.006258625849785209</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3933246666666667</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H21">
-        <v>1.179974</v>
+        <v>1.44256</v>
       </c>
       <c r="I21">
-        <v>0.04823133040554533</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J21">
-        <v>0.04823133040554532</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.003928</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N21">
-        <v>0.011784</v>
+        <v>0.035593</v>
       </c>
       <c r="O21">
-        <v>0.0003121507045800858</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P21">
-        <v>0.0003121507045800858</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q21">
-        <v>0.001544979290666667</v>
+        <v>0.005705004231111111</v>
       </c>
       <c r="R21">
-        <v>0.013904813616</v>
+        <v>0.05134503808</v>
       </c>
       <c r="S21">
-        <v>1.505544376892589E-05</v>
+        <v>5.828830461430221E-05</v>
       </c>
       <c r="T21">
-        <v>1.505544376892589E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.640597</v>
-      </c>
-      <c r="H22">
-        <v>1.921791</v>
-      </c>
-      <c r="I22">
-        <v>0.07855303311039341</v>
-      </c>
-      <c r="J22">
-        <v>0.0785530331103934</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.776364333333333</v>
-      </c>
-      <c r="N22">
-        <v>8.329093</v>
-      </c>
-      <c r="O22">
-        <v>0.2206324039768381</v>
-      </c>
-      <c r="P22">
-        <v>0.2206324039768381</v>
-      </c>
-      <c r="Q22">
-        <v>1.778530662840333</v>
-      </c>
-      <c r="R22">
-        <v>16.006775965563</v>
-      </c>
-      <c r="S22">
-        <v>0.01733134453481826</v>
-      </c>
-      <c r="T22">
-        <v>0.01733134453481826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.640597</v>
-      </c>
-      <c r="H23">
-        <v>1.921791</v>
-      </c>
-      <c r="I23">
-        <v>0.07855303311039341</v>
-      </c>
-      <c r="J23">
-        <v>0.0785530331103934</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.808225333333333</v>
-      </c>
-      <c r="N23">
-        <v>26.424676</v>
-      </c>
-      <c r="O23">
-        <v>0.6999729490580858</v>
-      </c>
-      <c r="P23">
-        <v>0.6999729490580857</v>
-      </c>
-      <c r="Q23">
-        <v>5.642522723857333</v>
-      </c>
-      <c r="R23">
-        <v>50.78270451471599</v>
-      </c>
-      <c r="S23">
-        <v>0.05498499824373954</v>
-      </c>
-      <c r="T23">
-        <v>0.05498499824373951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.640597</v>
-      </c>
-      <c r="H24">
-        <v>1.921791</v>
-      </c>
-      <c r="I24">
-        <v>0.07855303311039341</v>
-      </c>
-      <c r="J24">
-        <v>0.0785530331103934</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.003041</v>
-      </c>
-      <c r="N24">
-        <v>0.009123000000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.0002416624981232284</v>
-      </c>
-      <c r="P24">
-        <v>0.0002416624981232283</v>
-      </c>
-      <c r="Q24">
-        <v>0.001948055477</v>
-      </c>
-      <c r="R24">
-        <v>0.017532499293</v>
-      </c>
-      <c r="S24">
-        <v>1.898332221661434E-05</v>
-      </c>
-      <c r="T24">
-        <v>1.898332221661434E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.640597</v>
-      </c>
-      <c r="H25">
-        <v>1.921791</v>
-      </c>
-      <c r="I25">
-        <v>0.07855303311039341</v>
-      </c>
-      <c r="J25">
-        <v>0.0785530331103934</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.9921066666666668</v>
-      </c>
-      <c r="N25">
-        <v>2.97632</v>
-      </c>
-      <c r="O25">
-        <v>0.0788408337623728</v>
-      </c>
-      <c r="P25">
-        <v>0.07884083376237279</v>
-      </c>
-      <c r="Q25">
-        <v>0.6355405543466667</v>
-      </c>
-      <c r="R25">
-        <v>5.71986498912</v>
-      </c>
-      <c r="S25">
-        <v>0.006193186624986693</v>
-      </c>
-      <c r="T25">
-        <v>0.006193186624986692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.640597</v>
-      </c>
-      <c r="H26">
-        <v>1.921791</v>
-      </c>
-      <c r="I26">
-        <v>0.07855303311039341</v>
-      </c>
-      <c r="J26">
-        <v>0.0785530331103934</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.003928</v>
-      </c>
-      <c r="N26">
-        <v>0.011784</v>
-      </c>
-      <c r="O26">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P26">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q26">
-        <v>0.002516265016</v>
-      </c>
-      <c r="R26">
-        <v>0.022646385144</v>
-      </c>
-      <c r="S26">
-        <v>2.452038463231211E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.452038463231211E-05</v>
+        <v>5.828830461430222E-05</v>
       </c>
     </row>
   </sheetData>
